--- a/biology/Zoologie/Anomis_flava/Anomis_flava.xlsx
+++ b/biology/Zoologie/Anomis_flava/Anomis_flava.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anomis flava est une espèce de lépidoptères (papillons) de la famille des Erebidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve ce papillon en Asie, en Australie, en Afrique[2], et la plupart des îles du Pacifique et de l'océan Indien.
-En Amérique, il s'agit de la sous-espèce Anomis flava fimbriago[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve ce papillon en Asie, en Australie, en Afrique, et la plupart des îles du Pacifique et de l'océan Indien.
+En Amérique, il s'agit de la sous-espèce Anomis flava fimbriago.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure de l'imago est d'environ 28 mm.
 </t>
@@ -574,9 +590,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La chenille se nourrit de Hibiscus rosa-sinensis, Hibiscus cannabinus, Legnephora moorei et Gossypium hirsutum. Cette espèce est considérée une peste pour le coton, l'okra, l'abutilon et les tomates[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille se nourrit de Hibiscus rosa-sinensis, Hibiscus cannabinus, Legnephora moorei et Gossypium hirsutum. Cette espèce est considérée une peste pour le coton, l'okra, l'abutilon et les tomates.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Anomis flava flava
 Anomis flava fimbriago (Stephens, 1829)</t>
